--- a/Server/conf/names_to_account101.xlsx
+++ b/Server/conf/names_to_account101.xlsx
@@ -74,6 +74,9 @@
     <t>00400104</t>
   </si>
   <si>
+    <t>陈文斌</t>
+  </si>
+  <si>
     <t>00400105</t>
   </si>
   <si>
@@ -113,19 +116,16 @@
     <t>00400111</t>
   </si>
   <si>
+    <t>郭国庆</t>
+  </si>
+  <si>
+    <t>00400112</t>
+  </si>
+  <si>
     <t>黄永平</t>
   </si>
   <si>
-    <t>00400112</t>
-  </si>
-  <si>
-    <t>周文龙</t>
-  </si>
-  <si>
     <t>00400113</t>
-  </si>
-  <si>
-    <t>陈文斌</t>
   </si>
   <si>
     <t>00400114</t>
@@ -190,15 +190,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,17 +207,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,16 +229,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,52 +269,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,6 +312,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -335,187 +335,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,48 +526,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -592,6 +550,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -626,6 +593,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -634,10 +634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,133 +646,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1204,7 +1204,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="4">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>6</v>
@@ -1218,7 +1218,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="4">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>6</v>
@@ -1228,11 +1228,11 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2">
-        <v>104</v>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="4">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>6</v>
@@ -1240,13 +1240,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>6</v>
@@ -1254,13 +1254,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>6</v>
@@ -1268,10 +1268,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4">
         <v>18000</v>
@@ -1282,10 +1282,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -1296,13 +1296,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>6</v>
@@ -1310,13 +1310,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>6</v>
@@ -1324,13 +1324,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>6</v>
@@ -1338,13 +1338,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>6</v>
@@ -1352,13 +1352,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B14" s="2">
+        <v>113</v>
+      </c>
       <c r="C14" s="4">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>6</v>
@@ -1386,7 +1386,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="4">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>6</v>
